--- a/data/pca/factorExposure/factorExposure_2017-03-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01684048250885629</v>
+        <v>0.01111790076964688</v>
       </c>
       <c r="C2">
-        <v>-0.01787117447985511</v>
+        <v>-0.0422055675214472</v>
       </c>
       <c r="D2">
-        <v>0.03361528240576336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03040222238540087</v>
+      </c>
+      <c r="E2">
+        <v>0.04312114832120266</v>
+      </c>
+      <c r="F2">
+        <v>0.004304989542560989</v>
+      </c>
+      <c r="G2">
+        <v>-0.105948146641104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01887977285044683</v>
+        <v>0.03969741810812416</v>
       </c>
       <c r="C3">
-        <v>-0.0002425799125281441</v>
+        <v>-0.1004453334024075</v>
       </c>
       <c r="D3">
-        <v>0.09512265344877412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01787141660351802</v>
+      </c>
+      <c r="E3">
+        <v>0.1017629219577201</v>
+      </c>
+      <c r="F3">
+        <v>0.01211190826509672</v>
+      </c>
+      <c r="G3">
+        <v>-0.14686893366769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02356934294664769</v>
+        <v>0.055266577044693</v>
       </c>
       <c r="C4">
-        <v>-0.01276703326922761</v>
+        <v>-0.06805158775164384</v>
       </c>
       <c r="D4">
-        <v>0.08352480875639717</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02510457214051767</v>
+      </c>
+      <c r="E4">
+        <v>0.03923457611300424</v>
+      </c>
+      <c r="F4">
+        <v>-0.004063263179705999</v>
+      </c>
+      <c r="G4">
+        <v>-0.1005507170459763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.007863405252761824</v>
+        <v>0.0359080416925504</v>
       </c>
       <c r="C6">
-        <v>-0.01316363350235494</v>
+        <v>-0.05086231362356115</v>
       </c>
       <c r="D6">
-        <v>0.07016238548263376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01745233159129587</v>
+      </c>
+      <c r="E6">
+        <v>0.04298085980237783</v>
+      </c>
+      <c r="F6">
+        <v>-0.002328251751123037</v>
+      </c>
+      <c r="G6">
+        <v>-0.08725711620767153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.002599897054525809</v>
+        <v>0.02046349942476761</v>
       </c>
       <c r="C7">
-        <v>-0.01548517488709159</v>
+        <v>-0.03959470475141831</v>
       </c>
       <c r="D7">
-        <v>0.03722582747105598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01408580576626353</v>
+      </c>
+      <c r="E7">
+        <v>0.008094319384394828</v>
+      </c>
+      <c r="F7">
+        <v>0.005605971335315796</v>
+      </c>
+      <c r="G7">
+        <v>-0.1231824043076879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0030097528662914</v>
+        <v>0.003166250377767811</v>
       </c>
       <c r="C8">
-        <v>-0.002409331284096874</v>
+        <v>-0.02443923499206358</v>
       </c>
       <c r="D8">
-        <v>-0.01007839344973544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004139548821775207</v>
+      </c>
+      <c r="E8">
+        <v>0.03185252633875136</v>
+      </c>
+      <c r="F8">
+        <v>-0.001641289078715718</v>
+      </c>
+      <c r="G8">
+        <v>-0.07113379341293763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.009322818141055227</v>
+        <v>0.03266374548595128</v>
       </c>
       <c r="C9">
-        <v>-0.01133104907356941</v>
+        <v>-0.05013044375100072</v>
       </c>
       <c r="D9">
-        <v>0.05724848573776268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01670932773478712</v>
+      </c>
+      <c r="E9">
+        <v>0.02700053928649871</v>
+      </c>
+      <c r="F9">
+        <v>-0.003204630366707758</v>
+      </c>
+      <c r="G9">
+        <v>-0.1024424210608905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1530369561563354</v>
+        <v>0.09795336251037849</v>
       </c>
       <c r="C10">
-        <v>0.1035249912991195</v>
+        <v>0.1822386118980636</v>
       </c>
       <c r="D10">
-        <v>-0.1022980296526967</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01547227812245208</v>
+      </c>
+      <c r="E10">
+        <v>0.01942290236632476</v>
+      </c>
+      <c r="F10">
+        <v>0.02274515429944858</v>
+      </c>
+      <c r="G10">
+        <v>-0.05363303637234098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.00161321733700722</v>
+        <v>0.03507362844439486</v>
       </c>
       <c r="C11">
-        <v>-0.000550598316676479</v>
+        <v>-0.0520203545086609</v>
       </c>
       <c r="D11">
-        <v>0.05070421175266231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002637253049648032</v>
+      </c>
+      <c r="E11">
+        <v>0.02165560182224272</v>
+      </c>
+      <c r="F11">
+        <v>-0.01526692549597313</v>
+      </c>
+      <c r="G11">
+        <v>-0.09070290686094896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006074912048468854</v>
+        <v>0.03716819232661938</v>
       </c>
       <c r="C12">
-        <v>-0.003420787763568874</v>
+        <v>-0.04670887287218135</v>
       </c>
       <c r="D12">
-        <v>0.04521873721785839</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006617058108786065</v>
+      </c>
+      <c r="E12">
+        <v>0.01084596239276807</v>
+      </c>
+      <c r="F12">
+        <v>0.00102448165410527</v>
+      </c>
+      <c r="G12">
+        <v>-0.08208638430652387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01429134047961435</v>
+        <v>0.01468528841374501</v>
       </c>
       <c r="C13">
-        <v>-0.01668352487171906</v>
+        <v>-0.04212249931791119</v>
       </c>
       <c r="D13">
-        <v>0.03675049621586115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02708750114271618</v>
+      </c>
+      <c r="E13">
+        <v>0.04207631693261624</v>
+      </c>
+      <c r="F13">
+        <v>0.005874122885371604</v>
+      </c>
+      <c r="G13">
+        <v>-0.1428192217072785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.001882485501160745</v>
+        <v>0.008898471318881638</v>
       </c>
       <c r="C14">
-        <v>-0.007079933512981085</v>
+        <v>-0.02849305838202156</v>
       </c>
       <c r="D14">
-        <v>0.01895010862794331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01038543209502905</v>
+      </c>
+      <c r="E14">
+        <v>0.008695789727050963</v>
+      </c>
+      <c r="F14">
+        <v>0.01064790812235449</v>
+      </c>
+      <c r="G14">
+        <v>-0.1112938773199046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.005562001435726463</v>
+        <v>0.03375193527896274</v>
       </c>
       <c r="C16">
-        <v>0.002171899198615307</v>
+        <v>-0.04514318669974805</v>
       </c>
       <c r="D16">
-        <v>0.04021639001828443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002086080629173357</v>
+      </c>
+      <c r="E16">
+        <v>0.01623237479013086</v>
+      </c>
+      <c r="F16">
+        <v>0.00282267355331014</v>
+      </c>
+      <c r="G16">
+        <v>-0.09276600443114766</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.007490273801366944</v>
+        <v>0.02089489478583439</v>
       </c>
       <c r="C19">
-        <v>-0.01107049734053225</v>
+        <v>-0.05145890990729236</v>
       </c>
       <c r="D19">
-        <v>0.04193580955335104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02023586175416083</v>
+      </c>
+      <c r="E19">
+        <v>0.08785886549627904</v>
+      </c>
+      <c r="F19">
+        <v>-0.00473539945693783</v>
+      </c>
+      <c r="G19">
+        <v>-0.1414231991756638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.001076442689591281</v>
+        <v>0.01542123837239837</v>
       </c>
       <c r="C20">
-        <v>-0.01240719966125338</v>
+        <v>-0.04222079467998199</v>
       </c>
       <c r="D20">
-        <v>0.03527602317739505</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01466815292925896</v>
+      </c>
+      <c r="E20">
+        <v>0.03918010421833146</v>
+      </c>
+      <c r="F20">
+        <v>0.01942846088011368</v>
+      </c>
+      <c r="G20">
+        <v>-0.1124874893970201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.004449757876478833</v>
+        <v>0.01110029421681573</v>
       </c>
       <c r="C21">
-        <v>-0.01259386748121607</v>
+        <v>-0.03966506178985327</v>
       </c>
       <c r="D21">
-        <v>0.01521527732332326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01980843810978142</v>
+      </c>
+      <c r="E21">
+        <v>0.04982096533339445</v>
+      </c>
+      <c r="F21">
+        <v>0.009532533691751775</v>
+      </c>
+      <c r="G21">
+        <v>-0.1445311751785656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001020598955258756</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006663844233929561</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002081498020498165</v>
+      </c>
+      <c r="E22">
+        <v>0.01608183459693691</v>
+      </c>
+      <c r="F22">
+        <v>-0.009170785350968684</v>
+      </c>
+      <c r="G22">
+        <v>-0.002365155597355899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001029356174877247</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006670424449972103</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002079195867338679</v>
+      </c>
+      <c r="E23">
+        <v>0.0160552254382902</v>
+      </c>
+      <c r="F23">
+        <v>-0.00916132629654702</v>
+      </c>
+      <c r="G23">
+        <v>-0.00225409458684023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-8.351161604097223e-05</v>
+        <v>0.02925384382104815</v>
       </c>
       <c r="C24">
-        <v>-0.00663298021305263</v>
+        <v>-0.0483183159710988</v>
       </c>
       <c r="D24">
-        <v>0.04098381244621149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007309941281186247</v>
+      </c>
+      <c r="E24">
+        <v>0.01683609917082989</v>
+      </c>
+      <c r="F24">
+        <v>-0.006722285512436584</v>
+      </c>
+      <c r="G24">
+        <v>-0.09273462517952887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01443380129544746</v>
+        <v>0.04239126249595811</v>
       </c>
       <c r="C25">
-        <v>-0.003848580771613393</v>
+        <v>-0.0563790632612836</v>
       </c>
       <c r="D25">
-        <v>0.05756781570879017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01138611911751742</v>
+      </c>
+      <c r="E25">
+        <v>0.00787682517123397</v>
+      </c>
+      <c r="F25">
+        <v>-0.002886534674449984</v>
+      </c>
+      <c r="G25">
+        <v>-0.09843903491965655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01031597965096019</v>
+        <v>0.01433393682852197</v>
       </c>
       <c r="C26">
-        <v>-0.01931859257964052</v>
+        <v>-0.01177279056009952</v>
       </c>
       <c r="D26">
-        <v>0.0008407294295393516</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02433596892587279</v>
+      </c>
+      <c r="E26">
+        <v>0.01064644648053084</v>
+      </c>
+      <c r="F26">
+        <v>0.008671308869440795</v>
+      </c>
+      <c r="G26">
+        <v>-0.08634560781332777</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.2005756097820835</v>
+        <v>0.1264792377526484</v>
       </c>
       <c r="C28">
-        <v>0.1183147746887139</v>
+        <v>0.2414782081566</v>
       </c>
       <c r="D28">
-        <v>-0.1294539002840387</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006748469144899815</v>
+      </c>
+      <c r="E28">
+        <v>0.007320161054740837</v>
+      </c>
+      <c r="F28">
+        <v>0.01956333034179845</v>
+      </c>
+      <c r="G28">
+        <v>-0.04761027416272084</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.005791649406403148</v>
+        <v>0.009238174036617825</v>
       </c>
       <c r="C29">
-        <v>-0.004234158628708259</v>
+        <v>-0.02349117519033514</v>
       </c>
       <c r="D29">
-        <v>0.01761343010692971</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009402361344077395</v>
+      </c>
+      <c r="E29">
+        <v>0.00434361501513564</v>
+      </c>
+      <c r="F29">
+        <v>0.01649624391717718</v>
+      </c>
+      <c r="G29">
+        <v>-0.1030320531930454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.007219771393880297</v>
+        <v>0.04044146564637373</v>
       </c>
       <c r="C30">
-        <v>-0.02484619456816342</v>
+        <v>-0.06883369018759941</v>
       </c>
       <c r="D30">
-        <v>0.09540296208996554</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02975036054483297</v>
+      </c>
+      <c r="E30">
+        <v>0.07018639187714711</v>
+      </c>
+      <c r="F30">
+        <v>-0.03159629385839835</v>
+      </c>
+      <c r="G30">
+        <v>-0.1387944984126158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02073045420649873</v>
+        <v>0.05333293337338384</v>
       </c>
       <c r="C31">
-        <v>0.006985666319463481</v>
+        <v>-0.03952790041062774</v>
       </c>
       <c r="D31">
-        <v>0.0315036459624958</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003884011581201744</v>
+      </c>
+      <c r="E31">
+        <v>-0.002714248690765053</v>
+      </c>
+      <c r="F31">
+        <v>0.0383742147853005</v>
+      </c>
+      <c r="G31">
+        <v>-0.09649593905499096</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004213140604360611</v>
+        <v>0.002652669689177003</v>
       </c>
       <c r="C32">
-        <v>0.006984129101029358</v>
+        <v>-0.02140272741273788</v>
       </c>
       <c r="D32">
-        <v>-0.002998219441556241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002416447465784806</v>
+      </c>
+      <c r="E32">
+        <v>0.04293786358867695</v>
+      </c>
+      <c r="F32">
+        <v>-0.03162906087066034</v>
+      </c>
+      <c r="G32">
+        <v>-0.09179692201528322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.00760523005252403</v>
+        <v>0.02796587903547913</v>
       </c>
       <c r="C33">
-        <v>-0.008893542526198258</v>
+        <v>-0.05124103718172696</v>
       </c>
       <c r="D33">
-        <v>0.04352357292240738</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01659982755468641</v>
+      </c>
+      <c r="E33">
+        <v>0.05070700142265463</v>
+      </c>
+      <c r="F33">
+        <v>-0.008725093256456977</v>
+      </c>
+      <c r="G33">
+        <v>-0.1634080591862037</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.01188437079311524</v>
+        <v>0.04067113259362677</v>
       </c>
       <c r="C34">
-        <v>0.01328549956229136</v>
+        <v>-0.05808138167925028</v>
       </c>
       <c r="D34">
-        <v>0.05899068113190273</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004238280572596909</v>
+      </c>
+      <c r="E34">
+        <v>0.01309345525631018</v>
+      </c>
+      <c r="F34">
+        <v>-0.01869513746982445</v>
+      </c>
+      <c r="G34">
+        <v>-0.09492590062081546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01184013828953969</v>
+        <v>0.01554248132321539</v>
       </c>
       <c r="C36">
-        <v>-0.0051268246170593</v>
+        <v>-0.01078365604110521</v>
       </c>
       <c r="D36">
-        <v>0.003856759500687662</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01303402522765992</v>
+      </c>
+      <c r="E36">
+        <v>0.0112458356455794</v>
+      </c>
+      <c r="F36">
+        <v>0.009039349641649775</v>
+      </c>
+      <c r="G36">
+        <v>-0.09409531012531512</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.01646587894057768</v>
+        <v>0.03164568485835435</v>
       </c>
       <c r="C38">
-        <v>0.01877031291231866</v>
+        <v>-0.03034760908728727</v>
       </c>
       <c r="D38">
-        <v>0.03976737459033898</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007511176907404792</v>
+      </c>
+      <c r="E38">
+        <v>0.006457354166766826</v>
+      </c>
+      <c r="F38">
+        <v>0.01894546477967557</v>
+      </c>
+      <c r="G38">
+        <v>-0.08428725816156225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.01367874528848937</v>
+        <v>0.03700069487739612</v>
       </c>
       <c r="C39">
-        <v>-0.01972853496694281</v>
+        <v>-0.07882586944943418</v>
       </c>
       <c r="D39">
-        <v>0.097617704508365</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01191646515808258</v>
+      </c>
+      <c r="E39">
+        <v>0.03306093482077006</v>
+      </c>
+      <c r="F39">
+        <v>-0.01744898395273201</v>
+      </c>
+      <c r="G39">
+        <v>-0.09218883823883439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01503033663637408</v>
+        <v>0.01364373838944924</v>
       </c>
       <c r="C40">
-        <v>-0.003125060076802146</v>
+        <v>-0.03814550109978781</v>
       </c>
       <c r="D40">
-        <v>0.02991662556117703</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01496474498178441</v>
+      </c>
+      <c r="E40">
+        <v>0.03409480018130487</v>
+      </c>
+      <c r="F40">
+        <v>0.01341831795260865</v>
+      </c>
+      <c r="G40">
+        <v>-0.1228007371726222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01346385732550188</v>
+        <v>0.01989043947788554</v>
       </c>
       <c r="C41">
-        <v>0.004722509569629988</v>
+        <v>-0.004033495256952332</v>
       </c>
       <c r="D41">
-        <v>-0.009104606610758095</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.00486708587772204</v>
+      </c>
+      <c r="E41">
+        <v>0.008636642610555354</v>
+      </c>
+      <c r="F41">
+        <v>0.01605248536396945</v>
+      </c>
+      <c r="G41">
+        <v>-0.08736928364471899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.03265544921058924</v>
+        <v>0.007013672903226226</v>
       </c>
       <c r="C42">
-        <v>-0.08822451825321795</v>
+        <v>-0.02717830408596956</v>
       </c>
       <c r="D42">
-        <v>0.0968093284409722</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08718327655194009</v>
+      </c>
+      <c r="E42">
+        <v>0.006401877058278831</v>
+      </c>
+      <c r="F42">
+        <v>0.03951654389699515</v>
+      </c>
+      <c r="G42">
+        <v>0.01999944599006087</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01441344157762987</v>
+        <v>0.03545423458434235</v>
       </c>
       <c r="C43">
-        <v>0.004419555537972394</v>
+        <v>-0.01947546351087898</v>
       </c>
       <c r="D43">
-        <v>-0.007011391040544788</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006204506845573968</v>
+      </c>
+      <c r="E43">
+        <v>0.02224406005544097</v>
+      </c>
+      <c r="F43">
+        <v>0.01111999863337147</v>
+      </c>
+      <c r="G43">
+        <v>-0.1199329449991428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002635723994248454</v>
+        <v>0.01380081092758992</v>
       </c>
       <c r="C44">
-        <v>-0.00540416542423506</v>
+        <v>-0.05848644741679852</v>
       </c>
       <c r="D44">
-        <v>0.04656799112316466</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007066857818171414</v>
+      </c>
+      <c r="E44">
+        <v>0.02655911535912157</v>
+      </c>
+      <c r="F44">
+        <v>0.01200781534626907</v>
+      </c>
+      <c r="G44">
+        <v>-0.1107159414234253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.006593060688130819</v>
+        <v>0.009363125780415479</v>
       </c>
       <c r="C46">
-        <v>-0.007014438240936738</v>
+        <v>-0.01550506584569451</v>
       </c>
       <c r="D46">
-        <v>-0.002312301221658789</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01259046894766695</v>
+      </c>
+      <c r="E46">
+        <v>-0.0007939329831824334</v>
+      </c>
+      <c r="F46">
+        <v>0.02054663284654153</v>
+      </c>
+      <c r="G46">
+        <v>-0.1104110176090945</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02315154081530479</v>
+        <v>0.07897910225709059</v>
       </c>
       <c r="C47">
-        <v>0.01564873397605323</v>
+        <v>-0.06975338218860723</v>
       </c>
       <c r="D47">
-        <v>0.07937898842193421</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005175915486490021</v>
+      </c>
+      <c r="E47">
+        <v>-0.01214453318703715</v>
+      </c>
+      <c r="F47">
+        <v>0.05331891028869835</v>
+      </c>
+      <c r="G47">
+        <v>-0.08147904442849961</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.007099616002235303</v>
+        <v>0.01820359648631714</v>
       </c>
       <c r="C48">
-        <v>0.002913890766963714</v>
+        <v>-0.01349101108368169</v>
       </c>
       <c r="D48">
-        <v>0.01582265034438337</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002591312358057991</v>
+      </c>
+      <c r="E48">
+        <v>0.006903156433151913</v>
+      </c>
+      <c r="F48">
+        <v>0.02067140514799671</v>
+      </c>
+      <c r="G48">
+        <v>-0.09975409752531811</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03112570307302356</v>
+        <v>0.07476404159088378</v>
       </c>
       <c r="C50">
-        <v>0.01892929226292792</v>
+        <v>-0.07326758086091877</v>
       </c>
       <c r="D50">
-        <v>0.06888876205037535</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002054123037033512</v>
+      </c>
+      <c r="E50">
+        <v>-0.007899096181311245</v>
+      </c>
+      <c r="F50">
+        <v>0.05431651277274202</v>
+      </c>
+      <c r="G50">
+        <v>-0.09185595730010011</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007929778319654269</v>
+        <v>0.0133922333735312</v>
       </c>
       <c r="C51">
-        <v>-0.002286509155631657</v>
+        <v>-0.03749629887469124</v>
       </c>
       <c r="D51">
-        <v>0.02612463768749668</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01092066580953388</v>
+      </c>
+      <c r="E51">
+        <v>0.02973895911224289</v>
+      </c>
+      <c r="F51">
+        <v>-0.01390879213876458</v>
+      </c>
+      <c r="G51">
+        <v>-0.1247166583232329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.03699236052996665</v>
+        <v>0.08167232936443676</v>
       </c>
       <c r="C53">
-        <v>0.02166366732417812</v>
+        <v>-0.08423154586661888</v>
       </c>
       <c r="D53">
-        <v>0.1187130232478543</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003459657800878774</v>
+      </c>
+      <c r="E53">
+        <v>-0.02938187328874304</v>
+      </c>
+      <c r="F53">
+        <v>0.05947430901750086</v>
+      </c>
+      <c r="G53">
+        <v>-0.08945444381458219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01490856338426516</v>
+        <v>0.03179180583891252</v>
       </c>
       <c r="C54">
-        <v>0.01273564798613503</v>
+        <v>-0.01932319071004066</v>
       </c>
       <c r="D54">
-        <v>0.002595213329992596</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0008716333442220534</v>
+      </c>
+      <c r="E54">
+        <v>0.02003870369443641</v>
+      </c>
+      <c r="F54">
+        <v>0.01011141724305164</v>
+      </c>
+      <c r="G54">
+        <v>-0.1105500095568461</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.02071644841783038</v>
+        <v>0.0737082667140502</v>
       </c>
       <c r="C55">
-        <v>0.01320190318519591</v>
+        <v>-0.06773830085634477</v>
       </c>
       <c r="D55">
-        <v>0.09754971176297864</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005162976306432895</v>
+      </c>
+      <c r="E55">
+        <v>-0.02810675635231165</v>
+      </c>
+      <c r="F55">
+        <v>0.05918110011194434</v>
+      </c>
+      <c r="G55">
+        <v>-0.06558722300474748</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.04273521928980809</v>
+        <v>0.135814262008875</v>
       </c>
       <c r="C56">
-        <v>0.02984795901353374</v>
+        <v>-0.1080212849253011</v>
       </c>
       <c r="D56">
-        <v>0.1587305526778075</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01298897236206306</v>
+      </c>
+      <c r="E56">
+        <v>-0.03907563857195717</v>
+      </c>
+      <c r="F56">
+        <v>0.07386125510964954</v>
+      </c>
+      <c r="G56">
+        <v>-0.03697206033998891</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01728259041267558</v>
+        <v>0.005336487876118043</v>
       </c>
       <c r="C57">
-        <v>-0.01568873202438568</v>
+        <v>-0.006127019851328343</v>
       </c>
       <c r="D57">
-        <v>0.02952074114275668</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02270240933077904</v>
+      </c>
+      <c r="E57">
+        <v>0.02411614538530501</v>
+      </c>
+      <c r="F57">
+        <v>-0.003620972026479651</v>
+      </c>
+      <c r="G57">
+        <v>-0.02217061356843133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01113842053328545</v>
+        <v>0.04682889457877507</v>
       </c>
       <c r="C58">
-        <v>-0.01249819535597633</v>
+        <v>-0.04753159876783655</v>
       </c>
       <c r="D58">
-        <v>0.2053064096979148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0249614497492408</v>
+      </c>
+      <c r="E58">
+        <v>0.8595867223893604</v>
+      </c>
+      <c r="F58">
+        <v>0.3936999328540321</v>
+      </c>
+      <c r="G58">
+        <v>0.2539108747192725</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.2232216625156857</v>
+        <v>0.1587863355786289</v>
       </c>
       <c r="C59">
-        <v>0.1376818844972585</v>
+        <v>0.208138755851611</v>
       </c>
       <c r="D59">
-        <v>-0.1040545862952573</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01135360123633506</v>
+      </c>
+      <c r="E59">
+        <v>0.02495134349499372</v>
+      </c>
+      <c r="F59">
+        <v>0.004897960628432879</v>
+      </c>
+      <c r="G59">
+        <v>-0.04096481040551363</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1964048712094315</v>
+        <v>0.2897434218451671</v>
       </c>
       <c r="C60">
-        <v>0.09673392525307817</v>
+        <v>-0.1112849652073536</v>
       </c>
       <c r="D60">
-        <v>0.2003828407761904</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01285204320490372</v>
+      </c>
+      <c r="E60">
+        <v>0.05415918962491063</v>
+      </c>
+      <c r="F60">
+        <v>-0.3444419911288057</v>
+      </c>
+      <c r="G60">
+        <v>0.164938606622158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.00203108290652193</v>
+        <v>0.03874220905204018</v>
       </c>
       <c r="C61">
-        <v>-0.00611932622961162</v>
+        <v>-0.06529382267389422</v>
       </c>
       <c r="D61">
-        <v>0.07805421372631033</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.00615279808335452</v>
+      </c>
+      <c r="E61">
+        <v>0.03001727112162911</v>
+      </c>
+      <c r="F61">
+        <v>-0.01178793846456855</v>
+      </c>
+      <c r="G61">
+        <v>-0.1000253925712417</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.003431517500733317</v>
+        <v>0.01475616471778596</v>
       </c>
       <c r="C63">
-        <v>-0.006629290072139995</v>
+        <v>-0.03065691020065446</v>
       </c>
       <c r="D63">
-        <v>0.02079001900799091</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0088945038469848</v>
+      </c>
+      <c r="E63">
+        <v>0.006559940047580684</v>
+      </c>
+      <c r="F63">
+        <v>0.0147447613526689</v>
+      </c>
+      <c r="G63">
+        <v>-0.09543622710137339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02387783925561002</v>
+        <v>0.04952521885964354</v>
       </c>
       <c r="C64">
-        <v>0.008117077072804665</v>
+        <v>-0.04608839048118096</v>
       </c>
       <c r="D64">
-        <v>0.05501731888582926</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006019067985661319</v>
+      </c>
+      <c r="E64">
+        <v>0.005180266103059434</v>
+      </c>
+      <c r="F64">
+        <v>-0.001525472506105118</v>
+      </c>
+      <c r="G64">
+        <v>-0.09736098024751708</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.02924184141818112</v>
+        <v>0.07487185881507527</v>
       </c>
       <c r="C65">
-        <v>-0.002874079648017688</v>
+        <v>-0.05902120342907844</v>
       </c>
       <c r="D65">
-        <v>0.1141441401158249</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01717034998074351</v>
+      </c>
+      <c r="E65">
+        <v>0.04781334349465492</v>
+      </c>
+      <c r="F65">
+        <v>-0.02130163097544902</v>
+      </c>
+      <c r="G65">
+        <v>-0.04529254259039437</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.01360892028948015</v>
+        <v>0.05007816462646773</v>
       </c>
       <c r="C66">
-        <v>-0.01977691576349099</v>
+        <v>-0.105229207905291</v>
       </c>
       <c r="D66">
-        <v>0.1375538763794369</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01225839958661815</v>
+      </c>
+      <c r="E66">
+        <v>0.04929624388335643</v>
+      </c>
+      <c r="F66">
+        <v>-0.02792182058392894</v>
+      </c>
+      <c r="G66">
+        <v>-0.1064135348742232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.03773999809005993</v>
+        <v>0.05498496465406043</v>
       </c>
       <c r="C67">
-        <v>0.02751720681301833</v>
+        <v>-0.03457286901244177</v>
       </c>
       <c r="D67">
-        <v>0.06390277465559996</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006156353388944658</v>
+      </c>
+      <c r="E67">
+        <v>-0.004177871770563486</v>
+      </c>
+      <c r="F67">
+        <v>0.01755734433568818</v>
+      </c>
+      <c r="G67">
+        <v>-0.07096477950491036</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.23349688579704</v>
+        <v>0.1569803553061717</v>
       </c>
       <c r="C68">
-        <v>0.1220360144715617</v>
+        <v>0.2711485819451475</v>
       </c>
       <c r="D68">
-        <v>-0.1609128320613709</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005488626865637694</v>
+      </c>
+      <c r="E68">
+        <v>0.008326639304168602</v>
+      </c>
+      <c r="F68">
+        <v>0.04469909969441023</v>
+      </c>
+      <c r="G68">
+        <v>-0.02694959295534292</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.02870472386500184</v>
+        <v>0.08257862101113167</v>
       </c>
       <c r="C69">
-        <v>0.02347191634427067</v>
+        <v>-0.07279211840354921</v>
       </c>
       <c r="D69">
-        <v>0.08140950174667304</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009066009093688879</v>
+      </c>
+      <c r="E69">
+        <v>-0.02524802578478385</v>
+      </c>
+      <c r="F69">
+        <v>0.03544565412453998</v>
+      </c>
+      <c r="G69">
+        <v>-0.1006892247047828</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1915704773955931</v>
+        <v>0.1416873781356036</v>
       </c>
       <c r="C71">
-        <v>0.1075691154635986</v>
+        <v>0.2290231216421185</v>
       </c>
       <c r="D71">
-        <v>-0.108907906238208</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002642927808215342</v>
+      </c>
+      <c r="E71">
+        <v>0.03272221396178245</v>
+      </c>
+      <c r="F71">
+        <v>0.03139523238299798</v>
+      </c>
+      <c r="G71">
+        <v>-0.06991198084337007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.01645304388610355</v>
+        <v>0.08672386260806779</v>
       </c>
       <c r="C72">
-        <v>0.0166503096186444</v>
+        <v>-0.06938554273733703</v>
       </c>
       <c r="D72">
-        <v>0.09586800733547295</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008540221039814187</v>
+      </c>
+      <c r="E72">
+        <v>-0.008019137071630413</v>
+      </c>
+      <c r="F72">
+        <v>-0.0307568821668449</v>
+      </c>
+      <c r="G72">
+        <v>-0.09056853857067501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2539208687374888</v>
+        <v>0.3760455035448029</v>
       </c>
       <c r="C73">
-        <v>0.1206260104815626</v>
+        <v>-0.1153940007322072</v>
       </c>
       <c r="D73">
-        <v>0.2909783449850452</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02301337774785136</v>
+      </c>
+      <c r="E73">
+        <v>0.155758019036272</v>
+      </c>
+      <c r="F73">
+        <v>-0.5679558812658877</v>
+      </c>
+      <c r="G73">
+        <v>0.2857921244467121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.04437323693981963</v>
+        <v>0.1059057534333504</v>
       </c>
       <c r="C74">
-        <v>0.03209429642928129</v>
+        <v>-0.1096278510872406</v>
       </c>
       <c r="D74">
-        <v>0.1707559684212012</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009446843175066805</v>
+      </c>
+      <c r="E74">
+        <v>-0.01407615699914494</v>
+      </c>
+      <c r="F74">
+        <v>0.06619600108227586</v>
+      </c>
+      <c r="G74">
+        <v>-0.07826231338982459</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1140474294735613</v>
+        <v>0.249023479039343</v>
       </c>
       <c r="C75">
-        <v>0.07797408071890426</v>
+        <v>-0.1505362193935494</v>
       </c>
       <c r="D75">
-        <v>0.295840047839782</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03159339537524283</v>
+      </c>
+      <c r="E75">
+        <v>-0.0870301907905989</v>
+      </c>
+      <c r="F75">
+        <v>0.156417093854957</v>
+      </c>
+      <c r="G75">
+        <v>0.02803846032246168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.0466164206562213</v>
+        <v>0.1179589494211101</v>
       </c>
       <c r="C76">
-        <v>0.03868637628771972</v>
+        <v>-0.1110312859825013</v>
       </c>
       <c r="D76">
-        <v>0.1967832707865742</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01757296306108396</v>
+      </c>
+      <c r="E76">
+        <v>-0.03455375423128371</v>
+      </c>
+      <c r="F76">
+        <v>0.09323289349115131</v>
+      </c>
+      <c r="G76">
+        <v>-0.05590849532219535</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01445241610115536</v>
+        <v>0.06962064960581807</v>
       </c>
       <c r="C77">
-        <v>-0.002586153167497793</v>
+        <v>-0.05851941808556007</v>
       </c>
       <c r="D77">
-        <v>0.08407501738150938</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01028520026344048</v>
+      </c>
+      <c r="E77">
+        <v>0.0535192006720213</v>
+      </c>
+      <c r="F77">
+        <v>-0.0006837687559447437</v>
+      </c>
+      <c r="G77">
+        <v>-0.06801967878381716</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.007883846625132404</v>
+        <v>0.04235881381085253</v>
       </c>
       <c r="C78">
-        <v>-0.0007618622645795258</v>
+        <v>-0.05136398000403009</v>
       </c>
       <c r="D78">
-        <v>0.06708211065735617</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.006432924368932086</v>
+      </c>
+      <c r="E78">
+        <v>0.03631313160145065</v>
+      </c>
+      <c r="F78">
+        <v>-0.03058162124333945</v>
+      </c>
+      <c r="G78">
+        <v>-0.1020115936150004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001017377063127379</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0004134173906587007</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0003883956757380173</v>
+      </c>
+      <c r="E79">
+        <v>0.004105284030484585</v>
+      </c>
+      <c r="F79">
+        <v>-0.001402124829214991</v>
+      </c>
+      <c r="G79">
+        <v>-0.002161855086278632</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03392290315497695</v>
+        <v>0.04364755613873824</v>
       </c>
       <c r="C80">
-        <v>0.006507905688847759</v>
+        <v>-0.04950182623011382</v>
       </c>
       <c r="D80">
-        <v>0.0829235644375675</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01335376478040023</v>
+      </c>
+      <c r="E80">
+        <v>0.02972287282928185</v>
+      </c>
+      <c r="F80">
+        <v>-0.004696982233844102</v>
+      </c>
+      <c r="G80">
+        <v>-0.05327612610076442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.05969142944884159</v>
+        <v>0.138650846808861</v>
       </c>
       <c r="C81">
-        <v>0.04042273827295988</v>
+        <v>-0.09742950677181192</v>
       </c>
       <c r="D81">
-        <v>0.1700716137029053</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01515558775992162</v>
+      </c>
+      <c r="E81">
+        <v>-0.04944930105798124</v>
+      </c>
+      <c r="F81">
+        <v>0.12150940847595</v>
+      </c>
+      <c r="G81">
+        <v>-0.02276621303880987</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.002510332438424179</v>
+        <v>0.1433005808032315</v>
       </c>
       <c r="C82">
-        <v>0.001392497141858595</v>
+        <v>-0.08305786781005767</v>
       </c>
       <c r="D82">
-        <v>0.003182902929660931</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01181806194945091</v>
+      </c>
+      <c r="E82">
+        <v>-0.1225798342668133</v>
+      </c>
+      <c r="F82">
+        <v>0.05416608126577414</v>
+      </c>
+      <c r="G82">
+        <v>-0.04899200385783397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01333627254766809</v>
+        <v>0.03471809049803631</v>
       </c>
       <c r="C83">
-        <v>0.003328072625602447</v>
+        <v>-0.03085200829261572</v>
       </c>
       <c r="D83">
-        <v>0.01943778621365744</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006202559499305709</v>
+      </c>
+      <c r="E83">
+        <v>0.03227930108951296</v>
+      </c>
+      <c r="F83">
+        <v>-0.02614108483902733</v>
+      </c>
+      <c r="G83">
+        <v>-0.06104339718489484</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.09639188128473297</v>
+        <v>0.2095278143919147</v>
       </c>
       <c r="C85">
-        <v>0.053761475601976</v>
+        <v>-0.1460468170772798</v>
       </c>
       <c r="D85">
-        <v>0.2570584891630729</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01728485010541531</v>
+      </c>
+      <c r="E85">
+        <v>-0.112127578379961</v>
+      </c>
+      <c r="F85">
+        <v>0.09404620140564081</v>
+      </c>
+      <c r="G85">
+        <v>0.06300049755683974</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01074395207610988</v>
+        <v>0.0137054240353078</v>
       </c>
       <c r="C86">
-        <v>0.0001578944614344769</v>
+        <v>-0.02810251548927592</v>
       </c>
       <c r="D86">
-        <v>0.04431936275415856</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01157532689942556</v>
+      </c>
+      <c r="E86">
+        <v>0.05260714039543243</v>
+      </c>
+      <c r="F86">
+        <v>-0.007673385387333196</v>
+      </c>
+      <c r="G86">
+        <v>-0.1880041083606816</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.00835839421073444</v>
+        <v>0.02205339871992248</v>
       </c>
       <c r="C87">
-        <v>-0.01484712236975293</v>
+        <v>-0.01913208465939308</v>
       </c>
       <c r="D87">
-        <v>0.03195000629077196</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01252579332166855</v>
+      </c>
+      <c r="E87">
+        <v>0.1000579349094987</v>
+      </c>
+      <c r="F87">
+        <v>0.00912144775184468</v>
+      </c>
+      <c r="G87">
+        <v>-0.1226074732462728</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.04265788547975808</v>
+        <v>0.09301255455563461</v>
       </c>
       <c r="C88">
-        <v>-0.001574077017891443</v>
+        <v>-0.06946256916184447</v>
       </c>
       <c r="D88">
-        <v>0.04767507320286344</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02197181508196782</v>
+      </c>
+      <c r="E88">
+        <v>-0.005503836567744233</v>
+      </c>
+      <c r="F88">
+        <v>0.02131113563282588</v>
+      </c>
+      <c r="G88">
+        <v>-0.1023249912592981</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.3419405282990358</v>
+        <v>0.2297552555201752</v>
       </c>
       <c r="C89">
-        <v>0.1881765876503975</v>
+        <v>0.3680353934231195</v>
       </c>
       <c r="D89">
-        <v>-0.1997497843951696</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>5.63365827097304e-05</v>
+      </c>
+      <c r="E89">
+        <v>-0.01955617454317057</v>
+      </c>
+      <c r="F89">
+        <v>0.02349852707423167</v>
+      </c>
+      <c r="G89">
+        <v>-0.07154829428184017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2893585176213254</v>
+        <v>0.2080626812021358</v>
       </c>
       <c r="C90">
-        <v>0.1629338818849076</v>
+        <v>0.3178085373075629</v>
       </c>
       <c r="D90">
-        <v>-0.175374334986502</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004443782856843108</v>
+      </c>
+      <c r="E90">
+        <v>0.0004611071675706025</v>
+      </c>
+      <c r="F90">
+        <v>0.04986648078576261</v>
+      </c>
+      <c r="G90">
+        <v>-0.04557176143482929</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.09335450200717881</v>
+        <v>0.1860440833729028</v>
       </c>
       <c r="C91">
-        <v>0.06685783455867697</v>
+        <v>-0.1389907587991695</v>
       </c>
       <c r="D91">
-        <v>0.2205054884066689</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0226455042157936</v>
+      </c>
+      <c r="E91">
+        <v>-0.0796924078828971</v>
+      </c>
+      <c r="F91">
+        <v>0.1279067582718994</v>
+      </c>
+      <c r="G91">
+        <v>-0.02577424854412835</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2433613494192422</v>
+        <v>0.1992479205753065</v>
       </c>
       <c r="C92">
-        <v>0.1728397584779564</v>
+        <v>0.2566772940899031</v>
       </c>
       <c r="D92">
-        <v>-0.09248871865857829</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.038297129427139</v>
+      </c>
+      <c r="E92">
+        <v>0.03062826896624601</v>
+      </c>
+      <c r="F92">
+        <v>0.06593339765458506</v>
+      </c>
+      <c r="G92">
+        <v>-0.1126747656137154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.3050263508041144</v>
+        <v>0.232260307707278</v>
       </c>
       <c r="C93">
-        <v>0.1783073402137538</v>
+        <v>0.3126964182042427</v>
       </c>
       <c r="D93">
-        <v>-0.1365181373753905</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01131829604080482</v>
+      </c>
+      <c r="E93">
+        <v>0.002656856310239108</v>
+      </c>
+      <c r="F93">
+        <v>0.04410172624316971</v>
+      </c>
+      <c r="G93">
+        <v>-0.05723031076285624</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1186957197752348</v>
+        <v>0.3194206386336499</v>
       </c>
       <c r="C94">
-        <v>0.05727446115992967</v>
+        <v>-0.183121241899965</v>
       </c>
       <c r="D94">
-        <v>0.2805235058938503</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02118698552561159</v>
+      </c>
+      <c r="E94">
+        <v>-0.287176692885216</v>
+      </c>
+      <c r="F94">
+        <v>0.4417831437313071</v>
+      </c>
+      <c r="G94">
+        <v>0.3975935697082741</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.0009845367188414526</v>
+        <v>0.09566912197536893</v>
       </c>
       <c r="C95">
-        <v>0.005564158228234547</v>
+        <v>-0.08531390879092025</v>
       </c>
       <c r="D95">
-        <v>0.12531813018224</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009503949561198557</v>
+      </c>
+      <c r="E95">
+        <v>0.09693574509551746</v>
+      </c>
+      <c r="F95">
+        <v>-0.1590244213060728</v>
+      </c>
+      <c r="G95">
+        <v>-0.03218052278577877</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1345925839518332</v>
+        <v>0.1927115653791546</v>
       </c>
       <c r="C98">
-        <v>0.09252379404454006</v>
+        <v>-0.04485914033518698</v>
       </c>
       <c r="D98">
-        <v>0.1359859457212611</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01201389269415849</v>
+      </c>
+      <c r="E98">
+        <v>0.105249977645034</v>
+      </c>
+      <c r="F98">
+        <v>-0.229709469215955</v>
+      </c>
+      <c r="G98">
+        <v>0.0261478018996662</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.005416503994484194</v>
+        <v>0.009005658219821043</v>
       </c>
       <c r="C101">
-        <v>-0.004291046843515114</v>
+        <v>-0.02346931577729084</v>
       </c>
       <c r="D101">
-        <v>0.01786183590024767</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009229727445391836</v>
+      </c>
+      <c r="E101">
+        <v>0.004064288116682483</v>
+      </c>
+      <c r="F101">
+        <v>0.01737920184681944</v>
+      </c>
+      <c r="G101">
+        <v>-0.1021187714708509</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.05595454203199983</v>
+        <v>0.1150726834164506</v>
       </c>
       <c r="C102">
-        <v>0.02355594583297832</v>
+        <v>-0.08218277516650625</v>
       </c>
       <c r="D102">
-        <v>0.1281285132723012</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0006900200910884671</v>
+      </c>
+      <c r="E102">
+        <v>-0.04108580614985873</v>
+      </c>
+      <c r="F102">
+        <v>0.03650717732961942</v>
+      </c>
+      <c r="G102">
+        <v>-0.01194745741867549</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.4965014291188837</v>
+        <v>0.02141916358197651</v>
       </c>
       <c r="C104">
-        <v>-0.8574609886564332</v>
+        <v>0.02959755901924756</v>
       </c>
       <c r="D104">
-        <v>-0.03263080844515093</v>
+        <v>0.9875920616260043</v>
+      </c>
+      <c r="E104">
+        <v>-0.0603486787373884</v>
+      </c>
+      <c r="F104">
+        <v>0.02936363916312367</v>
+      </c>
+      <c r="G104">
+        <v>0.04110179796613372</v>
       </c>
     </row>
   </sheetData>
